--- a/src/test/resources/testdata/HrmsTestData.xlsx
+++ b/src/test/resources/testdata/HrmsTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58C506D-3EBE-43D1-BE27-C41E0CA97395}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F527E2A9-7385-4C72-BFB1-30BADDEAD11B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20055" yWindow="0" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>FirstName</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Name1</t>
-  </si>
-  <si>
     <t>LastName1</t>
   </si>
   <si>
@@ -49,103 +46,31 @@
     <t>noname3</t>
   </si>
   <si>
-    <t>noname4</t>
-  </si>
-  <si>
-    <t>noname5</t>
-  </si>
-  <si>
-    <t>noname6</t>
-  </si>
-  <si>
-    <t>noname7</t>
-  </si>
-  <si>
-    <t>noname8</t>
-  </si>
-  <si>
-    <t>noname9</t>
-  </si>
-  <si>
-    <t>noname10</t>
-  </si>
-  <si>
-    <t>noname11</t>
-  </si>
-  <si>
-    <t>noname12</t>
-  </si>
-  <si>
-    <t>Name2</t>
-  </si>
-  <si>
-    <t>Name3</t>
-  </si>
-  <si>
-    <t>Name4</t>
-  </si>
-  <si>
-    <t>Name5</t>
-  </si>
-  <si>
-    <t>Name6</t>
-  </si>
-  <si>
-    <t>Name7</t>
-  </si>
-  <si>
-    <t>Name8</t>
-  </si>
-  <si>
-    <t>Name9</t>
-  </si>
-  <si>
-    <t>Name10</t>
-  </si>
-  <si>
-    <t>Name11</t>
+    <t>LastName2</t>
+  </si>
+  <si>
+    <t>LastName3</t>
+  </si>
+  <si>
+    <t>ZADOLBALpassword123!@#</t>
+  </si>
+  <si>
+    <t>Emp ID</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
   <si>
     <t>Name12</t>
   </si>
   <si>
-    <t>LastName2</t>
-  </si>
-  <si>
-    <t>LastName3</t>
-  </si>
-  <si>
-    <t>LastName4</t>
-  </si>
-  <si>
-    <t>LastName5</t>
-  </si>
-  <si>
-    <t>LastName6</t>
-  </si>
-  <si>
-    <t>LastName7</t>
-  </si>
-  <si>
-    <t>LastName8</t>
-  </si>
-  <si>
-    <t>LastName9</t>
-  </si>
-  <si>
-    <t>LastName10</t>
-  </si>
-  <si>
-    <t>LastName11</t>
-  </si>
-  <si>
-    <t>LastName12</t>
-  </si>
-  <si>
-    <t>ZADOLBALpassword123!@#</t>
-  </si>
-  <si>
-    <t>Emp ID</t>
+    <t>Name22</t>
+  </si>
+  <si>
+    <t>Name33</t>
   </si>
 </sst>
 </file>
@@ -474,206 +399,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{F4B5BEF9-740E-457B-A389-B18B2DF5F84B}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{F4B5BEF9-740E-457B-A389-B18B2DF5F84B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
